--- a/forwardprimer-v3_07.xlsx
+++ b/forwardprimer-v3_07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_07" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0577-CTGCACTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCACTTCATCGTCGGCAGCGTC</t>
+    <t>F0577-TCACAGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0578-TCTCGAGACA</t>
+    <t>F0578-AACAGTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>F0579-CGTACCTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTACCTGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>F0580-GAAGACACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F0581-AGTGATGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGATGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F0582-GTCTTGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F0583-CTCATGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCATGTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F0584-AAGAGCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGCTTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F0585-TCTGACTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F0586-ACACCTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCTGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F0587-CATGTTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTTCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F0588-TCAGTCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTCAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F0589-AGAGGTACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGTACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F0590-GCTCTAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTAGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F0591-ACCAAGCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F0592-TGATGTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTCCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F0593-TCACACCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACACCAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F0594-TCTACCTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACCTGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F0595-CGTGTTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTTCGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F0596-CAAGAAGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAAGCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F0597-AACGACGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGACGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F0598-TTGTCTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCTCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F0599-TTCAACCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAACCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F0600-AAGTCATCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCATCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F0601-ATCCAACTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCAACTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F0602-ATCTTGCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTTGCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F0603-ATCCAACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCAACGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F0604-TAGTAGAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTAGAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F0605-TTGTTGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTGGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F0606-GCAAGTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTCCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F0607-CACTAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTAGACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F0608-AGTCGTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F0609-TACATCCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACATCCACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F0610-CTGACACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACACATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F0611-GTTCCTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F0612-TGTTGCTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGCTTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F0613-AACCTACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTACACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F0614-CAACAACTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAACTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F0615-CTACAACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACAACCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F0616-AGTCCTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F0617-ACCTACCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTACCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F0618-AACCTGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGAAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F0619-TCTGACACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACACCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F0620-AGCATGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F0621-TCTCGAGACA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTCTCGAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>F0579-TCGACTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGACTCCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>F0580-CGTTCCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCCAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>F0581-CACATGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACATGTACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>F0582-CTCCTAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTAGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>F0583-TTCACAGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACAGTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>F0584-GATCTAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTAGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>F0585-CACTGTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTCACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F0586-GAAGCATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCATCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>F0587-GTGAAGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F0588-GTTCCAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCAGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F0589-ATGTCCACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCCACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F0590-CAGCAACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGCAACGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F0591-GTAGCTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F0592-CTACGAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGAGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F0593-ACACACTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F0594-ACGAACACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAACACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F0595-AGTAGCTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGCTTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F0596-GTGTGACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGACTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F0597-CACGACAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACGACAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F0598-GTCTGGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGGTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F0599-GCTCTAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTAGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F0600-TTCAACCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAACCACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F0601-TCAAGTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGTAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F0602-CTTCGTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGTAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F0603-TAGCAAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAAGGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F0604-TACTCGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGAAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F0605-AGTTGCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGCATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F0606-GACAGTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAGTCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F0607-CTGACACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGACACATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F0608-CTGAGTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F0609-GGACAGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACAGATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F0610-ACTGACACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGACACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F0611-TCTGTCGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F0612-CTCAGTTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGTTCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F0613-ACCATCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATCACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F0614-TGAACTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACTGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F0615-ACATCCTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCCTCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F0616-TACCAACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCAACTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F0617-ACCTTCACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F0618-TAGAACTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F0619-TGATGCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCAACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F0620-ACTACACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACACGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F0621-GCTTCAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCAACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0622-CTGATCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGATCTCAATCGTCGGCAGCGTC</t>
+    <t>F0622-ACTAGTCCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGTCCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0623-TTGATCGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGATCGTCATCGTCGGCAGCGTC</t>
+    <t>F0623-TCAAGCAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0624-GGTACATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACATCACTCGTCGGCAGCGTC</t>
+    <t>F0624-TAGCTAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0625-ACGTACTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTACTCTGTCGTCGGCAGCGTC</t>
+    <t>F0625-TCCTCTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0626-TAGACTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTGTGTTCGTCGGCAGCGTC</t>
+    <t>F0626-ATCTTGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTTGGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0627-CATCTTGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTTGGAGTCGTCGGCAGCGTC</t>
+    <t>F0627-GATGTCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0628-CTCTTGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTGAACATCGTCGGCAGCGTC</t>
+    <t>F0628-TCTACTGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACTGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0629-TCAGGATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGATGTGTCGTCGGCAGCGTC</t>
+    <t>F0629-TCAGAGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0630-AGATGGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGGTACCTCGTCGGCAGCGTC</t>
+    <t>F0630-GAACCTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0631-TGATCCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATCCTTCGTCGTCGGCAGCGTC</t>
+    <t>F0631-TCATCCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCCACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0632-CAGAGTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTGTACTCGTCGGCAGCGTC</t>
+    <t>F0632-TCGTACACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0633-GAGCTTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTTGAGATCGTCGGCAGCGTC</t>
+    <t>F0633-CCTTGTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0634-ACTACATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACATCTGTCGTCGGCAGCGTC</t>
+    <t>F0634-TTCCAAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAAGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0635-ACAACCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACCAACATCGTCGGCAGCGTC</t>
+    <t>F0635-AACAGTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F0636-TTGGAACCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAACCTCTCGTCGGCAGCGTC</t>
+    <t>F0636-GCATGACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F0637-GAGAACAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAACAAGCTCGTCGGCAGCGTC</t>
+    <t>F0637-AGCTGCTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGCTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F0638-AGACTCTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCTACCTCGTCGGCAGCGTC</t>
+    <t>F0638-AGGTTGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTGAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F0639-TGTAGGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGGTGATTCGTCGGCAGCGTC</t>
+    <t>F0639-TCCTAGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTAGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F0640-ACTTCGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCGTACGTCGTCGGCAGCGTC</t>
+    <t>F0640-GATGGAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGGAACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F0641-GTACAGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGGTACTCGTCGGCAGCGTC</t>
+    <t>F0641-GTGGTAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTAGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F0642-CGTTGGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGGAAGATCGTCGGCAGCGTC</t>
+    <t>F0642-CCAGTGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTGTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F0643-AGTCACAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACAGAGTCGTCGGCAGCGTC</t>
+    <t>F0643-CTTCGACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F0644-GCATCTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTGTCTTCGTCGGCAGCGTC</t>
+    <t>F0644-AGCTCTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F0645-TAGTAGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTAGACACTCGTCGGCAGCGTC</t>
+    <t>F0645-AGCATGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F0646-ACTCACATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCACATGGTCGTCGGCAGCGTC</t>
+    <t>F0646-GAGTAGTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTAGTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F0647-CAACAACTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAACTGGTCGTCGGCAGCGTC</t>
+    <t>F0647-AAGGTCGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0648-ACCAACTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAACTAGATCGTCGGCAGCGTC</t>
+    <t>F0648-CTACTTGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTTGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F0649-CCTTCGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCGACTATCGTCGGCAGCGTC</t>
+    <t>F0649-AGTGTACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F0650-AAGCTGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGTACTTCGTCGGCAGCGTC</t>
+    <t>F0650-CGAAGCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGCTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F0651-GTGAACAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAACAACATCGTCGGCAGCGTC</t>
+    <t>F0651-ACAGATGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGATGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F0652-ATCAGTCTTC</t>
+    <t>F0652-TCCAACTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F0653-AGTTCGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCGTTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F0654-TGTTGTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGTACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F0655-AACTGGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGGTACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F0656-ACAAGAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F0657-TACATGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACATGGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F0658-AGAAGCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F0659-GCTGTCACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTCACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F0660-TGCAGAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGAAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F0661-TGATCCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCCAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F0662-CTTCCTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCCTGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F0663-TCCACATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCACATGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F0664-TTCTCATCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCATCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F0665-AGAGTACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTACAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F0666-TACCTGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTGTGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>F0667-TCTCCTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>F0668-TCTCGTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>F0669-ATCAGTCTTC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACATCAGTCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F0653-TACGTACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTACATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F0654-ACCATCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATCTTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F0655-GTAGTACGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTACGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F0656-AGCTACACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F0657-CAGTACTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTACTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F0658-ACTGATCGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGATCGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F0659-TGGTCACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F0660-AGACAAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACAAGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F0661-TTCGTTGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTTGAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F0662-GCACTTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACTTCCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F0663-ACCAGACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAGACCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F0664-AACCAACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAACCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F0665-TGCATGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCATGATGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F0666-GCTTGTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGTAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>F0667-CCTTCACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>F0668-AGACGACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACGACCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>F0669-TCAAGACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGACAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0670-GATCCAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCAACGTTCGTCGGCAGCGTC</t>
+    <t>F0670-GTACTTGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTTGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0671-AGTGAGTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGTCCTTCGTCGGCAGCGTC</t>
+    <t>F0671-AAGTCACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0672-CTTCAGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGTAGATCGTCGGCAGCGTC</t>
+    <t>F0672-CAAGCATGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCATGATTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
